--- a/public/locations.xlsx
+++ b/public/locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muvva\Desktop\urbandotnew\urbandot-couriers-chatbot\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E567B887-DC28-44D0-B961-8C19A0D93776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCAD8AB-9FFD-4941-AEDE-C97EBF818720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC52D84E-2941-4BB2-8C53-EB62FCD8A1B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC52D84E-2941-4BB2-8C53-EB62FCD8A1B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
   <si>
     <t>S NO</t>
   </si>
@@ -152,24 +152,9 @@
     <t>MALAKPET</t>
   </si>
   <si>
-    <t>Nagole</t>
-  </si>
-  <si>
-    <t>Sircilla</t>
-  </si>
-  <si>
-    <t>Nellore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kothagudem </t>
-  </si>
-  <si>
     <t xml:space="preserve">KAGAZNAGAR </t>
   </si>
   <si>
-    <t>NANDHI KATKUR</t>
-  </si>
-  <si>
     <t>BHOODAN</t>
   </si>
   <si>
@@ -345,13 +330,155 @@
   </si>
   <si>
     <t>kavadiguda@urbandot.in</t>
+  </si>
+  <si>
+    <t>NANDHI KOTKUR</t>
+  </si>
+  <si>
+    <t>"SB COMPLEX 
+ground FLOOR,OPP:OLD R&amp;B OFFICE, SKD Colony, Adoni, Andhra Pradesh 518301"</t>
+  </si>
+  <si>
+    <t>adoni@urbandot.in</t>
+  </si>
+  <si>
+    <t>ADONI</t>
+  </si>
+  <si>
+    <t>Door No: 1-7-176-1 &amp; 1-4-254,Viswanatha Reddy Compound,Nagari Gutta,Pulivendula Town,YSR KADAPA Dist. - 516396</t>
+  </si>
+  <si>
+    <t>madanapalle@urbandot.in</t>
+  </si>
+  <si>
+    <t>mancherial@urbandot.in</t>
+  </si>
+  <si>
+    <t>gadwal@urbandot.in</t>
+  </si>
+  <si>
+    <t>narsaraopeta@urbandot.in</t>
+  </si>
+  <si>
+    <t>sattenpalle@urbandot.in</t>
+  </si>
+  <si>
+    <t>pidugurala@urbandot.in</t>
+  </si>
+  <si>
+    <t>miryalaguda@urbandot.in</t>
+  </si>
+  <si>
+    <t>8/383,Tygaraja street ,Madanapalle ,Annamaya dist ,AP 517325</t>
+  </si>
+  <si>
+    <t>D NO :7-1190/2,Prakasham Dist, Ongole 1 Town, Managamuru Road,SSN Degree College,2nd Line Hari Hara Nagar,Andhra Pradesh.523002.</t>
+  </si>
+  <si>
+    <t>D. No 8-103, Azad Street, Gollapudi, Vijayawada, NTR Dist., Andhra Pradesh 521225</t>
+  </si>
+  <si>
+    <t>MADANAPALLE</t>
+  </si>
+  <si>
+    <t>MANCHERIAL</t>
+  </si>
+  <si>
+    <t>VEMULAWADA</t>
+  </si>
+  <si>
+    <t>PRODDATUR</t>
+  </si>
+  <si>
+    <t>GADWAL</t>
+  </si>
+  <si>
+    <t>NALGONDA</t>
+  </si>
+  <si>
+    <t>ANNANTHAPUR</t>
+  </si>
+  <si>
+    <t>SATTENPALLE</t>
+  </si>
+  <si>
+    <t>PIDUGURALA</t>
+  </si>
+  <si>
+    <t>MIRYALAGUDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONGOLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KURNOOL </t>
+  </si>
+  <si>
+    <t>SULLURPETA</t>
+  </si>
+  <si>
+    <t>KOTAPET</t>
+  </si>
+  <si>
+    <t>nandyal@urbandot.in</t>
+  </si>
+  <si>
+    <t>1-4-33/F6,R K COLONY,GADWAL,PO.GADWAL,DIST,JOGULAMBA GADWAL,TELANGANA,509125</t>
+  </si>
+  <si>
+    <t>H no : 1-6/1,Taralapalle,Palnadu,Dist,522660</t>
+  </si>
+  <si>
+    <t>H NO:20-5-9,Venugopala swamy Temple,Sattenapalli,Guntur,Andhra Pradesh,522403</t>
+  </si>
+  <si>
+    <t>15-2.opposit.Maseedcomplex.mainroad.piduguralla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB NAGAR </t>
+  </si>
+  <si>
+    <t>NAGOLE</t>
+  </si>
+  <si>
+    <t>SIRCILLA</t>
+  </si>
+  <si>
+    <t>NELLORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOTHAGUDEM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIJAYAWADA </t>
+  </si>
+  <si>
+    <t>KADIRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENALI </t>
+  </si>
+  <si>
+    <t>MACHILIPATNAM</t>
+  </si>
+  <si>
+    <t>SURYAPET</t>
+  </si>
+  <si>
+    <t>GUNTUR</t>
+  </si>
+  <si>
+    <t>VANASTHALIPURAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARSARAOPETA </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,11 +504,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <b/>
@@ -423,8 +545,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +585,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -473,60 +614,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -540,87 +634,72 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -934,81 +1013,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558392C9-8911-43B6-839C-D55F4117AAD2}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="158.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="158.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="C1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="19">
         <v>8712650533</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2">
         <v>503001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="17">
+        <v>8977761911</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>518422</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
@@ -1016,607 +1097,1037 @@
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="19">
         <v>8712650535</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2">
         <v>500036</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="17">
+        <v>8977761850</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2">
         <v>500068</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="17">
+        <v>8977761849</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2">
         <v>505304</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2">
         <v>524306</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="26">
+        <v>136</v>
+      </c>
+      <c r="C8" s="19">
         <v>8712650528</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="2">
         <v>507101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="26">
+        <v>38</v>
+      </c>
+      <c r="C9" s="19">
         <v>8712650527</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2">
         <v>504296</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>68</v>
+      <c r="B10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="17">
+        <v>8977761920</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="F10" s="2">
         <v>518401</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f>A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="26">
+        <v>39</v>
+      </c>
+      <c r="C11" s="19">
         <v>8712650518</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="2">
         <v>503185</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" ref="A12:A34" si="1">A11+1</f>
+        <f t="shared" ref="A12:A33" si="1">A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="26">
+        <v>40</v>
+      </c>
+      <c r="C12" s="19">
         <v>8712650531</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2">
         <v>517123</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="16">
+        <v>8977761914</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="24">
         <v>505402</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="26">
+        <v>42</v>
+      </c>
+      <c r="C14" s="19">
         <v>8977729183</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="2">
         <v>500090</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="17">
+        <v>8977761930</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="2">
         <v>508206</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="17">
+        <v>8977761872</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="25">
         <v>516175</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="17">
+        <v>8977761915</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="2">
         <v>518501</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="26">
+        <v>46</v>
+      </c>
+      <c r="C18" s="19">
         <v>9063461958</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="3">
         <v>506001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="17">
+        <v>8977761944</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="2">
         <v>500016</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="28">
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="21">
         <v>9063461952</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="2">
         <v>506004</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="28">
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="21">
         <v>9063461959</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="2">
         <v>506002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="17">
+        <v>8977761861</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2">
         <v>503224</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="17">
+        <v>8977761941</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="2">
         <v>534275</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="17">
+        <v>8977761860</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2">
         <v>515865</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="17">
+        <v>8977761874</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="2">
         <v>534275</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="17">
+        <v>8977761858</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="2">
         <v>507001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="B27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="17">
+        <v>8977761913</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>516289</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="17" t="s">
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="17">
+        <v>8977761875</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="2">
         <v>516360</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="17" t="s">
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="17">
+        <v>8977761876</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="5">
         <v>516502</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="17">
+        <v>8977761938</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="2">
         <v>516193</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="B31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="17">
+        <v>8977761940</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="5">
         <v>516504</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="17">
+        <v>8977761945</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="2">
         <v>516126</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="31" t="s">
+      <c r="B33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="17">
+        <v>8977761859</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="5">
+        <v>516396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
+        <v>33</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="7">
-        <v>516396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="13" t="s">
+      <c r="C34" s="17">
+        <v>8977761931</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="17">
+        <v>518302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="17">
+        <v>8977761916</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="5">
         <v>500080</v>
       </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
+        <v>35</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="18">
+        <v>8977761948</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="17">
+        <v>517325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17">
+        <v>36</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="18">
+        <v>8977761947</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17">
+        <v>37</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="18">
+        <v>8977761856</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
+        <v>38</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="18">
+        <v>8977761917</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17">
+        <v>39</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="18">
+        <v>8977761918</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="17">
+        <v>40</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="18">
+        <v>8977761870</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="17">
+        <v>41</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="17">
+        <v>42</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="18">
+        <v>8977761857</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="17">
+        <v>43</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="17">
+        <v>44</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="18">
+        <v>8977761936</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="17">
+        <v>45</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="18">
+        <v>8977761850</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="17">
+        <v>46</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="18">
+        <v>8977761848</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="17">
+        <v>508278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="17">
+        <v>47</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="18">
+        <v>8977761949</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="17">
+        <v>523001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="17">
+        <v>48</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="18">
+        <v>8977761946</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="17">
+        <v>49</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="17">
+        <v>50</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="18">
+        <v>8977761942</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="17">
+        <v>51</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="18">
+        <v>8977761847</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="17">
+        <v>52</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="17">
+        <v>53</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="17">
+        <v>54</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="17">
+        <v>55</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="17">
+        <v>56</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="18">
+        <v>8977761928</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="17">
+        <v>57</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="17">
+        <v>58</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="17">
+        <v>59</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" xr:uid="{34AE7230-F04D-4CD6-988C-DF21465D8561}"/>
     <hyperlink ref="D19" r:id="rId2" xr:uid="{99CDDF3B-3D2C-49B6-A1AB-990A470CEE80}"/>
+    <hyperlink ref="D34" r:id="rId3" xr:uid="{692A00B2-112E-4AA0-A361-794A462D129F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/public/locations.xlsx
+++ b/public/locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muvva\Desktop\urbandotnew\urbandot-couriers-chatbot\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1D9363C-EDDD-4F0F-9935-DAA91F154565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813FAB47-F3C4-4435-8222-D2A430D4421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC52D84E-2941-4BB2-8C53-EB62FCD8A1B6}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EC52D84E-2941-4BB2-8C53-EB62FCD8A1B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1325,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3288338-CEC2-46FC-BEB3-B4EF7B008267}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="F48" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2539,7 +2539,7 @@
         <v>222</v>
       </c>
       <c r="F61" s="42">
-        <v>504312</v>
+        <v>504112</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">

--- a/public/locations.xlsx
+++ b/public/locations.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muvva\Desktop\urbandotnew\urbandot-couriers-chatbot\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813FAB47-F3C4-4435-8222-D2A430D4421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F47B51-C8A3-4BD1-8705-06F4F9E40E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EC52D84E-2941-4BB2-8C53-EB62FCD8A1B6}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EC52D84E-2941-4BB2-8C53-EB62FCD8A1B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$B$2:$F$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$B$2:$F$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="230">
   <si>
     <t xml:space="preserve">NIZAMABAD </t>
   </si>
@@ -222,9 +222,6 @@
     <t>asifabad@urbandot.in</t>
   </si>
   <si>
-    <t>siddipet@urbandot.in</t>
-  </si>
-  <si>
     <t>yellandu@urbandot.in</t>
   </si>
   <si>
@@ -252,12 +249,6 @@
     <t>nagole.@urbandot.in</t>
   </si>
   <si>
-    <t xml:space="preserve">SIRICILLA </t>
-  </si>
-  <si>
-    <t>sircilla.@urbandot.in</t>
-  </si>
-  <si>
     <t xml:space="preserve">NELLORE </t>
   </si>
   <si>
@@ -378,9 +369,6 @@
     <t xml:space="preserve">ADONI </t>
   </si>
   <si>
-    <t xml:space="preserve">SIDDIPET </t>
-  </si>
-  <si>
     <t xml:space="preserve">DILSUKHNAGAR </t>
   </si>
   <si>
@@ -579,9 +567,6 @@
     <t>KRUSHI NAGAR ROAD NO2 LOFT BAR BESIDE BADMINTON STADIUM OPPOSITE BANDLAGUDA NAGOLE 500038</t>
   </si>
   <si>
-    <t>NEAR BUSSTAND LINGANNAPET SIRCILLA 505304</t>
-  </si>
-  <si>
     <t>NTR NAGAR BALAJI NAGAR NELLORE ANDHRA PRADESH 524002.</t>
   </si>
   <si>
@@ -711,9 +696,6 @@
     <t>JUBLI MARKET AT ASIFABAD,DISTRICT : KOMRAM BHEEM,ASIFABAD,PINCODE :504293</t>
   </si>
   <si>
-    <t>H.NO :- 18-15-28 MUDHIRAJ SANGAM , MUSTABAD CHOURASTA TO GOVT HOSPITAL ROAD SAIBABA TEMPLE BACKSIDE, SIDDIPET</t>
-  </si>
-  <si>
     <t>4-1-83/1 14.NO BASTHI YELLANDU</t>
   </si>
   <si>
@@ -739,6 +721,12 @@
   </si>
   <si>
     <t>H/NO 3-79 GANGANNAPET UTNOOR MANDAL DIST ADILABAD,ST PAUL'S ENGLISH MEDIUM HIGH SCHOOL BESIDE</t>
+  </si>
+  <si>
+    <t>SHOP  NO -3 INDIRA NAGAR CHURCH OPPOSITE STREET MAIN ROAD, ATMAKUR , NANDYAL,  ANDHRA PRADESH-518422</t>
+  </si>
+  <si>
+    <t>SHOP NO-13 , VASAVI PHARMA COMPLEX , OPPOSITE AYYAPA SWAMI TEMPLE , GOLLAPUDI</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3288338-CEC2-46FC-BEB3-B4EF7B008267}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F48" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="E56" zoomScale="91" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1340,22 +1328,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="F1" s="37" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1369,10 +1357,10 @@
         <v>8712650533</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F2" s="38">
         <v>503001</v>
@@ -1389,10 +1377,10 @@
         <v>8977761911</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="21">
-        <v>522008</v>
+        <v>66</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>228</v>
       </c>
       <c r="F3" s="38">
         <v>518422</v>
@@ -1403,16 +1391,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C4" s="19">
         <v>8712650535</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F4" s="38">
         <v>500036</v>
@@ -1423,16 +1411,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="19">
         <v>8977761871</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F5" s="38">
         <v>500068</v>
@@ -1440,1512 +1428,1490 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="19">
+        <v>8977761937</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="19">
-        <v>8977761849</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F6" s="38">
-        <v>500068</v>
+        <v>524306</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="C7" s="19">
-        <v>8977761937</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>74</v>
+        <v>8712650528</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="F7" s="38">
-        <v>524306</v>
+        <v>507101</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="C8" s="19">
-        <v>8712650528</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>8712650527</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="38">
+        <v>504296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="19">
+        <v>8977761920</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="38">
+        <v>518401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="19">
+        <v>8712650518</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="38">
-        <v>507101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="19">
-        <v>8712650527</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="38">
-        <v>504296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="19">
-        <v>8977761920</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>183</v>
+      <c r="E10" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="F10" s="38">
-        <v>518401</v>
+        <v>503185</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C11" s="19">
-        <v>8712650518</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>78</v>
+        <v>8712650531</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="F11" s="38">
-        <v>503185</v>
+        <v>517123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C12" s="19">
-        <v>8712650531</v>
+        <v>8977761914</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="38">
-        <v>517123</v>
+        <v>77</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="39">
+        <v>505402</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C13" s="19">
-        <v>8977761914</v>
+        <v>8977729183</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="39">
-        <v>505402</v>
+        <v>79</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="38">
+        <v>500090</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="C14" s="19">
-        <v>8977729183</v>
+        <v>8977761930</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>185</v>
+        <v>80</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="F14" s="38">
-        <v>500090</v>
+        <v>508206</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="C15" s="19">
-        <v>8977761930</v>
+        <v>8977761872</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F15" s="38">
-        <v>508206</v>
+        <v>81</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="40">
+        <v>516175</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="C16" s="19">
-        <v>8977761872</v>
+        <v>8977761915</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16" s="40">
-        <v>516175</v>
+        <v>41</v>
+      </c>
+      <c r="F16" s="38">
+        <v>518501</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="19">
-        <v>8977761915</v>
+        <v>9063461958</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="38">
-        <v>518501</v>
+        <v>82</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="41">
+        <v>506001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C18" s="19">
-        <v>9063461958</v>
+        <v>8977761944</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="41">
-        <v>506001</v>
+        <v>184</v>
+      </c>
+      <c r="F18" s="38">
+        <v>500016</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C19" s="19">
-        <v>8977761944</v>
+        <v>9063461952</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F19" s="38">
-        <v>500016</v>
+        <v>506004</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="C20" s="19">
-        <v>9063461952</v>
+        <v>9063461959</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F20" s="38">
-        <v>506004</v>
+        <v>506002</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="C21" s="19">
-        <v>9063461959</v>
+        <v>8977761861</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>191</v>
+        <v>87</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>187</v>
       </c>
       <c r="F21" s="38">
-        <v>506002</v>
+        <v>503224</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C22" s="19">
-        <v>8977761861</v>
+        <v>8977761941</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="F22" s="38">
-        <v>503224</v>
+        <v>534275</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="C23" s="19">
-        <v>8977761941</v>
+        <v>9063461957</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="F23" s="38">
-        <v>534275</v>
+        <v>500035</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="C24" s="19">
-        <v>9063461957</v>
+        <v>8977761860</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F24" s="38">
-        <v>500035</v>
+        <v>515865</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C25" s="19">
-        <v>8977761860</v>
+        <v>8977761876</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F25" s="38">
-        <v>515865</v>
+        <v>534260</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C26" s="19">
-        <v>8977761876</v>
+        <v>8977761858</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F26" s="38">
-        <v>534260</v>
+        <v>507001</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C27" s="19">
-        <v>8977761858</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>196</v>
+        <v>8977761929</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="F27" s="38">
-        <v>507001</v>
+        <v>500049</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="19">
-        <v>8977761929</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>197</v>
+        <v>8977761912</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="F28" s="38">
-        <v>500049</v>
+        <v>503111</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>96</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C29" s="19">
-        <v>8977761912</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>168</v>
+        <v>8977761913</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="38">
-        <v>503111</v>
+        <v>45</v>
+      </c>
+      <c r="F29" s="42">
+        <v>516289</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C30" s="19">
-        <v>8977761913</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="42">
-        <v>516289</v>
+        <v>8977761875</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="38">
+        <v>516360</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>107</v>
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C31" s="19">
-        <v>8977761875</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>10</v>
+        <v>8977761874</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F31" s="38">
-        <v>516360</v>
+        <v>46</v>
+      </c>
+      <c r="F31" s="42">
+        <v>516502</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C32" s="19">
-        <v>8977761874</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="42">
-        <v>516502</v>
+        <v>8977761938</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="38">
+        <v>516193</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>109</v>
+        <v>33</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C33" s="19">
-        <v>8977761938</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>12</v>
+        <v>8977761940</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="38">
-        <v>516193</v>
+        <v>194</v>
+      </c>
+      <c r="F33" s="42">
+        <v>516504</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>97</v>
+        <v>34</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="C34" s="19">
-        <v>8977761940</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>13</v>
+        <v>8977761945</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="42">
-        <v>516504</v>
+        <v>195</v>
+      </c>
+      <c r="F34" s="38">
+        <v>516126</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>110</v>
+        <v>35</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C35" s="19">
-        <v>8977761945</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>14</v>
+        <v>8977761859</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="38">
-        <v>516126</v>
+        <v>196</v>
+      </c>
+      <c r="F35" s="42">
+        <v>516396</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>111</v>
+        <v>36</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C36" s="19">
-        <v>8977761859</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>15</v>
+        <v>8977761931</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="42">
-        <v>516396</v>
+        <v>197</v>
+      </c>
+      <c r="F36" s="38">
+        <v>518302</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>112</v>
+        <v>37</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C37" s="19">
-        <v>8977761931</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="38">
-        <v>518302</v>
+        <v>8977761916</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="42">
+        <v>500080</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="C38" s="19">
-        <v>8977761916</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" s="42">
-        <v>500080</v>
+        <v>8977761948</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="38">
+        <v>517325</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>126</v>
+        <v>39</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C39" s="19">
-        <v>8977761948</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>18</v>
+        <v>8977761947</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="F39" s="38">
-        <v>517325</v>
+        <v>200</v>
+      </c>
+      <c r="F39" s="42">
+        <v>505531</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>127</v>
+        <v>40</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="C40" s="19">
-        <v>8977761947</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="F40" s="42">
-        <v>505531</v>
+        <v>8977761856</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="38">
+        <v>505402</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>128</v>
+        <v>41</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C41" s="19">
-        <v>8977761856</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F41" s="38">
-        <v>505402</v>
+        <v>8977761918</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="42">
+        <v>509125</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>98</v>
+        <v>42</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="C42" s="19">
-        <v>8977761918</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>20</v>
+        <v>8977761870</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="F42" s="42">
-        <v>509125</v>
+        <v>203</v>
+      </c>
+      <c r="F42" s="38">
+        <v>522601</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C43" s="19">
-        <v>8977761870</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>21</v>
+        <v>8977761857</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F43" s="38">
-        <v>522601</v>
+        <v>515001</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="19">
-        <v>8977761857</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>54</v>
+        <v>127</v>
+      </c>
+      <c r="C44" s="34">
+        <v>8977710332</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F44" s="38">
-        <v>515001</v>
+        <v>500070</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" s="38">
-        <v>500070</v>
+        <v>45</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="19">
+        <v>8977761936</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" s="42">
+        <v>522403</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>132</v>
+        <v>46</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="C46" s="19">
-        <v>8977761936</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F46" s="42">
-        <v>522403</v>
+        <v>8977761850</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" s="38">
+        <v>522413</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C47" s="19">
-        <v>8977761850</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>22</v>
+        <v>8977761848</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F47" s="38">
-        <v>522413</v>
+        <v>508278</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="19">
-        <v>8977761848</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="F48" s="38">
-        <v>508278</v>
+        <v>500008</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="1" t="s">
-        <v>169</v>
+        <v>49</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="19">
+        <v>8977761949</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="F49" s="38">
-        <v>500008</v>
+        <v>523001</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C50" s="19">
-        <v>8977761949</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="F50" s="38">
-        <v>523001</v>
+        <v>8977761946</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F50" s="42">
+        <v>518002</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="19">
-        <v>8977761946</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F51" s="42">
-        <v>518002</v>
+        <v>131</v>
+      </c>
+      <c r="C51" s="34">
+        <v>8977710339</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="38">
+        <v>515591</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="34">
-        <v>8977710339</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="F52" s="38">
-        <v>515591</v>
+        <v>52</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="19">
+        <v>8977761942</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F52" s="42">
+        <v>520004</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="19">
-        <v>8977761942</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F53" s="42">
-        <v>520004</v>
+        <v>53</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="38">
+        <v>522201</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" s="25"/>
-      <c r="F54" s="38">
-        <v>522201</v>
+        <v>54</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="19">
+        <v>8977761927</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F54" s="42">
+        <v>521002</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="19">
-        <v>8977761927</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F55" s="42">
-        <v>521002</v>
+        <v>55</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="34">
+        <v>8977710331</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" s="38">
+        <v>500036</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F56" s="38">
-        <v>500036</v>
+        <v>56</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="19">
+        <v>8977761926</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" s="42">
+        <v>508374</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" s="19">
-        <v>8977761926</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F57" s="42">
-        <v>508374</v>
+        <v>57</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="F57" s="38">
+        <v>522003</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>141</v>
+        <v>58</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C58" s="34"/>
-      <c r="D58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="F58" s="38">
-        <v>522003</v>
+      <c r="D58" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="42">
+        <v>522002</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>141</v>
+        <v>59</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C59" s="34"/>
-      <c r="D59" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="42">
-        <v>522002</v>
+      <c r="D59" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="38">
+        <v>500074</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="38">
-        <v>500074</v>
+        <v>60</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="34">
+        <v>8977710336</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F60" s="42">
+        <v>504112</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="34"/>
+      <c r="D61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" s="34">
-        <v>8977710336</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="F61" s="42">
-        <v>504112</v>
+      <c r="E61" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F61" s="38">
+        <v>504293</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
+        <v>63</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="34">
+        <v>8977710380</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="E62" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F62" s="38">
-        <v>504293</v>
+        <v>507211</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="10" t="s">
-        <v>61</v>
+        <v>98</v>
+      </c>
+      <c r="C63" s="34">
+        <v>8977710369</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F63" s="42">
-        <v>502107</v>
+        <v>509152</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>144</v>
+        <v>65</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="C64" s="34">
-        <v>8977710380</v>
-      </c>
-      <c r="D64" s="11" t="s">
+        <v>8977710334</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="F64" s="38">
-        <v>507211</v>
+      <c r="E64" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F64" s="42">
+        <v>501505</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="C65" s="34"/>
       <c r="D65" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F65" s="42">
-        <v>509152</v>
+        <v>156</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F65" s="38">
+        <v>534202</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="34">
+        <v>8977710340</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F66" s="42">
-        <v>501505</v>
+        <v>500072</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C67" s="34"/>
       <c r="D67" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F67" s="38">
-        <v>534202</v>
+        <v>516474</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="C68" s="34"/>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F68" s="42">
-        <v>500072</v>
+        <v>515671</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C69" s="34"/>
       <c r="D69" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F69" s="38">
-        <v>516474</v>
+        <v>500061</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="C70" s="34"/>
-      <c r="D70" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>231</v>
-      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="29"/>
       <c r="F70" s="42">
-        <v>515671</v>
+        <v>501101</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>149</v>
+        <v>72</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="C71" s="34"/>
       <c r="D71" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="F71" s="38">
-        <v>500061</v>
+        <v>159</v>
+      </c>
+      <c r="E71" s="29"/>
+      <c r="F71" s="42">
+        <v>502319</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>150</v>
+        <v>73</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="C72" s="34"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="42">
-        <v>501101</v>
+      <c r="D72" s="14"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="38">
+        <v>425201</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" s="34"/>
+        <v>101</v>
+      </c>
+      <c r="C73" s="34">
+        <v>8977710374</v>
+      </c>
       <c r="D73" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E73" s="29"/>
+        <v>160</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>229</v>
+      </c>
       <c r="F73" s="42">
-        <v>502319</v>
+        <v>521225</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="25"/>
+        <v>102</v>
+      </c>
+      <c r="C74" s="34">
+        <v>8977710362</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>227</v>
+      </c>
       <c r="F74" s="38">
-        <v>425201</v>
+        <v>504311</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="35"/>
+      <c r="D75" s="17"/>
       <c r="E75" s="30"/>
-      <c r="F75" s="42">
-        <v>521225</v>
+      <c r="F75" s="43">
+        <v>570022</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="F76" s="38">
-        <v>504311</v>
+        <v>77</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="35"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="39">
+        <v>560075</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="C77" s="35"/>
       <c r="D77" s="17"/>
       <c r="E77" s="30"/>
       <c r="F77" s="43">
-        <v>570022</v>
+        <v>560079</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C78" s="35"/>
       <c r="D78" s="18"/>
       <c r="E78" s="32"/>
       <c r="F78" s="39">
-        <v>560075</v>
+        <v>560038</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C79" s="35"/>
       <c r="D79" s="17"/>
       <c r="E79" s="30"/>
       <c r="F79" s="43">
-        <v>560079</v>
+        <v>562101</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>36</v>
+        <v>81</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="C80" s="35"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="39">
-        <v>560038</v>
+      <c r="D80" s="17"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="43">
+        <v>581325</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>37</v>
+        <v>82</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="C81" s="35"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="43">
-        <v>562101</v>
+      <c r="D81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E81" s="32"/>
+      <c r="F81" s="39">
+        <v>506343</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>38</v>
+        <v>83</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>150</v>
       </c>
       <c r="C82" s="35"/>
-      <c r="D82" s="17"/>
+      <c r="D82" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="E82" s="30"/>
       <c r="F82" s="43">
-        <v>581325</v>
+        <v>502278</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>82</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>153</v>
+        <v>84</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="C83" s="35"/>
-      <c r="D83" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E83" s="32"/>
-      <c r="F83" s="39">
-        <v>506343</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E84" s="30"/>
-      <c r="F84" s="43">
-        <v>502278</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="35"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="33" t="s">
+      <c r="D83" s="17"/>
+      <c r="E83" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="43">
+      <c r="F83" s="43">
         <v>110059</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E90" t="str">
-        <f>UPPER(E76)</f>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E88" t="str">
+        <f>UPPER(E74)</f>
         <v>H/NO 3-79 GANGANNAPET UTNOOR MANDAL DIST ADILABAD,ST PAUL'S ENGLISH MEDIUM HIGH SCHOOL BESIDE</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D45" r:id="rId1" display="mailto:vanastalipuram@urbandot.in" xr:uid="{DA855907-411A-433A-A80D-3CCD021D077A}"/>
-    <hyperlink ref="D48" r:id="rId2" display="mailto:miryalaguda@urbandot.in" xr:uid="{BB14C391-82AA-4D81-B3C3-85B224CACAA2}"/>
-    <hyperlink ref="D68" r:id="rId3" display="mailto:kukatpally@urbandot.in" xr:uid="{A6339035-6944-456D-96D5-C7601D1B2BEC}"/>
-    <hyperlink ref="D70" r:id="rId4" display="mailto:dharmavaram@urbandot.in" xr:uid="{87EA1C46-5030-4C49-BE83-DFBAADE46E7C}"/>
+    <hyperlink ref="D44" r:id="rId1" display="mailto:vanastalipuram@urbandot.in" xr:uid="{DA855907-411A-433A-A80D-3CCD021D077A}"/>
+    <hyperlink ref="D47" r:id="rId2" display="mailto:miryalaguda@urbandot.in" xr:uid="{BB14C391-82AA-4D81-B3C3-85B224CACAA2}"/>
+    <hyperlink ref="D66" r:id="rId3" display="mailto:kukatpally@urbandot.in" xr:uid="{A6339035-6944-456D-96D5-C7601D1B2BEC}"/>
+    <hyperlink ref="D68" r:id="rId4" display="mailto:dharmavaram@urbandot.in" xr:uid="{87EA1C46-5030-4C49-BE83-DFBAADE46E7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
